--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7ED6C0-3181-4661-A9ED-8A4FBC38589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559BE42F-F027-46C3-9D33-EB0A6F573721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2688" windowWidth="23040" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1407,6 +1407,21 @@
   </si>
   <si>
     <t>DWS Purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer customers DWS email </t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>DWS 4 Project Montreux Cloud 9 Development Environment</t>
+  </si>
+  <si>
+    <t>Manage traffic and integration</t>
   </si>
 </sst>
 </file>
@@ -21014,21 +21029,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DE2D9-DFBD-4AA0-B38C-9D396D43032D}">
   <sheetPr codeName="Taul1"/>
-  <dimension ref="A1:D534"/>
+  <dimension ref="A1:E535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>394</v>
       </c>
@@ -21041,24 +21057,30 @@
       <c r="D1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -21066,42 +21088,42 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -21822,66 +21844,69 @@
         <v>110</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>118</v>
       </c>
@@ -22014,66 +22039,72 @@
         <v>134</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>142</v>
       </c>
@@ -23189,6 +23220,9 @@
       <c r="A534" s="1" t="s">
         <v>281</v>
       </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23224,2261 +23258,2261 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId9" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId9" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId11" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId12" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId13" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId14" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId15" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId15" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId16" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId16" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId17" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId17" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId18" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId18" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId19" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId19" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId20" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId20" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId21" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId21" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId22" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId22" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId23" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId23" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId24" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId24" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId25" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId25" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId26" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId26" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId27" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId27" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId28" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId28" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId29" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId29" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId30" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId30" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId31" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId31" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId32" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId32" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId33" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId33" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId34" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId34" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId35" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId35" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId36" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId36" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId37" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId37" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId38" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId38" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId39" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId39" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId40" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId40" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId41" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId41" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId42" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>75</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId42" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId43" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId43" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId44" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId44" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId45" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId45" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId46" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId46" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId47" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId47" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId48" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId48" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId49" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId49" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId50" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId50" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId51" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId51" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId52" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId52" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId53" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId53" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId54" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId54" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId55" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId55" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId56" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId56" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId57" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId57" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId58" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId58" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1078" r:id="rId59" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1078" r:id="rId59" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1079" r:id="rId60" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1079" r:id="rId60" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1080" r:id="rId61" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1080" r:id="rId61" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1081" r:id="rId62" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1081" r:id="rId62" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1082" r:id="rId63" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1082" r:id="rId63" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1083" r:id="rId64" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1083" r:id="rId64" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1084" r:id="rId65" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1084" r:id="rId65" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1085" r:id="rId66" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>122</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>123</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1085" r:id="rId66" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId67" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>124</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>125</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId67" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1087" r:id="rId68" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>126</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>127</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1087" r:id="rId68" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1088" r:id="rId69" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>128</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>129</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId69" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId70" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>130</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>131</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId70" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1090" r:id="rId71" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>132</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>133</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1090" r:id="rId71" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1091" r:id="rId72" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>134</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>135</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId72" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1092" r:id="rId73" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>136</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>137</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1092" r:id="rId73" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId74" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>138</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>139</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1093" r:id="rId74" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1094" r:id="rId75" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>140</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>141</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1094" r:id="rId75" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId76" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>142</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>143</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId76" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId77" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>144</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>145</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId77" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId78" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>146</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>147</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId78" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId79" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>148</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>149</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId79" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId80" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>150</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>151</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId80" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId81" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>152</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>153</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId81" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId82" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>154</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>155</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId82" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId83" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>156</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>157</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId83" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId84" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>158</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>159</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId84" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId85" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>160</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>161</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId85" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1105" r:id="rId86" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>162</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>163</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1105" r:id="rId86" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId87" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>164</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>165</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId87" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1107" r:id="rId88" name="Control 83">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
+                <xdr:row>166</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>167</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1107" r:id="rId88" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1108" r:id="rId89" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>168</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>169</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1108" r:id="rId89" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1109" r:id="rId90" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>170</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>171</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1109" r:id="rId90" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId91" name="Control 86">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
+                <xdr:row>172</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>173</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId91" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId92" name="Control 87">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId9" name="Control 5">
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1111" r:id="rId92" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1112" r:id="rId93" name="Control 88">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId9" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId10" name="Control 6">
+                <xdr:row>176</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>177</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1112" r:id="rId93" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId94" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>178</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>179</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId94" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1114" r:id="rId95" name="Control 90">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId10" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId11" name="Control 7">
+                <xdr:row>180</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>181</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1114" r:id="rId95" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1115" r:id="rId96" name="Control 91">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId11" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId12" name="Control 8">
+                <xdr:row>182</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>183</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1115" r:id="rId96" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1116" r:id="rId97" name="Control 92">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId12" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId15" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId15" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId16" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId16" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId17" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId17" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId19" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId19" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId20" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId20" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId21" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId21" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId22" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId24" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId24" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId25" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId25" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId26" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId26" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId27" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId27" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId28" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId28" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId29" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId29" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId30" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId30" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId31" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId31" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId32" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId32" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId33" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId33" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId34" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId34" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId35" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId35" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId36" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId36" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId37" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId37" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId38" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId38" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId39" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId39" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId40" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId40" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId41" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>75</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId41" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId42" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId42" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId43" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId43" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId44" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId44" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId45" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId45" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId46" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId46" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId47" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId47" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId48" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>89</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId48" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId49" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId49" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId50" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId50" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId51" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId51" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId52" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId52" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId53" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId53" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId54" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>100</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId54" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId55" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>102</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId55" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId56" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1076" r:id="rId56" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId57" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1077" r:id="rId57" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId58" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1078" r:id="rId58" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId59" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1079" r:id="rId59" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId60" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1080" r:id="rId60" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId61" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1081" r:id="rId61" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId62" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1082" r:id="rId62" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId63" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1083" r:id="rId63" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId64" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>120</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>121</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1084" r:id="rId64" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId65" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>122</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>123</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1085" r:id="rId65" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId66" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>124</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>125</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1086" r:id="rId66" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId67" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>126</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>127</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1087" r:id="rId67" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId68" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>128</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>129</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1088" r:id="rId68" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId69" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>130</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>131</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1089" r:id="rId69" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId70" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>132</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>133</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1090" r:id="rId70" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId71" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>134</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>135</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1091" r:id="rId71" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId72" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>136</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>137</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1092" r:id="rId72" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId73" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>138</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>139</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1093" r:id="rId73" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId74" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>140</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>141</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1094" r:id="rId74" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId75" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>142</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>143</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1095" r:id="rId75" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId76" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>144</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>145</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1096" r:id="rId76" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId77" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>146</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>147</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId77" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId78" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>148</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>149</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId78" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId79" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>150</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>151</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId79" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId80" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>152</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>153</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId80" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId81" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>154</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>155</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId81" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId82" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>156</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>157</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId82" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId83" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>158</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>159</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId83" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId84" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>160</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>161</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1104" r:id="rId84" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId85" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>162</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>163</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1105" r:id="rId85" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId86" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>164</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>165</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1106" r:id="rId86" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId87" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>166</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>167</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1107" r:id="rId87" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId89" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>168</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>169</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1108" r:id="rId89" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId90" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>170</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>171</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1109" r:id="rId90" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId91" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>172</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>173</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1110" r:id="rId91" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId92" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>175</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1111" r:id="rId92" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId93" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>176</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>177</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1112" r:id="rId93" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId94" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>178</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>179</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1113" r:id="rId94" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId95" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>180</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>181</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1114" r:id="rId95" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1115" r:id="rId96" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>182</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>183</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1115" r:id="rId96" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1116" r:id="rId97" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId88">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>184</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -25499,7 +25533,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1117" r:id="rId98" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25524,7 +25558,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1118" r:id="rId99" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25549,7 +25583,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1119" r:id="rId100" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25574,7 +25608,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1120" r:id="rId101" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25599,7 +25633,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1121" r:id="rId102" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25624,7 +25658,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1122" r:id="rId103" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25649,7 +25683,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1123" r:id="rId104" name="Control 99">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25674,7 +25708,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1124" r:id="rId105" name="Control 100">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25699,7 +25733,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1125" r:id="rId106" name="Control 101">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25724,7 +25758,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1126" r:id="rId107" name="Control 102">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25774,7 +25808,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1128" r:id="rId109" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25799,7 +25833,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1129" r:id="rId110" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25824,7 +25858,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1130" r:id="rId111" name="Control 106">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25849,7 +25883,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1131" r:id="rId112" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25874,7 +25908,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1132" r:id="rId113" name="Control 108">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25899,7 +25933,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1133" r:id="rId114" name="Control 109">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25924,7 +25958,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1134" r:id="rId115" name="Control 110">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25949,7 +25983,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1135" r:id="rId116" name="Control 111">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25974,7 +26008,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1136" r:id="rId117" name="Control 112">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25999,7 +26033,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1137" r:id="rId118" name="Control 113">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26024,7 +26058,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1138" r:id="rId119" name="Control 114">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26049,7 +26083,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1139" r:id="rId120" name="Control 115">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26074,7 +26108,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1140" r:id="rId121" name="Control 116">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26099,7 +26133,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1141" r:id="rId122" name="Control 117">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26124,7 +26158,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1142" r:id="rId123" name="Control 118">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26149,7 +26183,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1143" r:id="rId124" name="Control 119">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26174,7 +26208,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1144" r:id="rId125" name="Control 120">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26199,7 +26233,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1145" r:id="rId126" name="Control 121">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26224,7 +26258,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1146" r:id="rId127" name="Control 122">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26249,7 +26283,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1147" r:id="rId128" name="Control 123">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26274,7 +26308,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1148" r:id="rId129" name="Control 124">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26299,7 +26333,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1149" r:id="rId130" name="Control 125">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26324,7 +26358,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1150" r:id="rId131" name="Control 126">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26374,7 +26408,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1152" r:id="rId133" name="Control 128">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26399,7 +26433,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1153" r:id="rId134" name="Control 129">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26424,7 +26458,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1154" r:id="rId135" name="Control 130">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26449,7 +26483,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1155" r:id="rId136" name="Control 131">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26474,7 +26508,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1156" r:id="rId137" name="Control 132">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26499,7 +26533,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1157" r:id="rId138" name="Control 133">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26524,7 +26558,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1158" r:id="rId139" name="Control 134">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26549,7 +26583,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1159" r:id="rId140" name="Control 135">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26574,7 +26608,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1160" r:id="rId141" name="Control 136">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26599,7 +26633,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1161" r:id="rId142" name="Control 137">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26624,7 +26658,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1162" r:id="rId143" name="Control 138">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26649,7 +26683,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1163" r:id="rId144" name="Control 139">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26674,7 +26708,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1164" r:id="rId145" name="Control 140">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26699,7 +26733,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1165" r:id="rId146" name="Control 141">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26724,7 +26758,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1166" r:id="rId147" name="Control 142">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26749,7 +26783,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1167" r:id="rId148" name="Control 143">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26774,7 +26808,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1168" r:id="rId149" name="Control 144">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26799,7 +26833,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1169" r:id="rId150" name="Control 145">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26824,7 +26858,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1170" r:id="rId151" name="Control 146">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26849,7 +26883,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1171" r:id="rId152" name="Control 147">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26874,7 +26908,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1172" r:id="rId153" name="Control 148">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26899,7 +26933,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1173" r:id="rId154" name="Control 149">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26924,7 +26958,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1174" r:id="rId155" name="Control 150">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26949,7 +26983,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1175" r:id="rId156" name="Control 151">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26974,7 +27008,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1176" r:id="rId157" name="Control 152">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -26999,7 +27033,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1177" r:id="rId158" name="Control 153">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27024,7 +27058,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1178" r:id="rId159" name="Control 154">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27049,7 +27083,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1179" r:id="rId160" name="Control 155">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27074,7 +27108,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1180" r:id="rId161" name="Control 156">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27099,7 +27133,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1181" r:id="rId162" name="Control 157">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27124,7 +27158,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1182" r:id="rId163" name="Control 158">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27149,7 +27183,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1183" r:id="rId164" name="Control 159">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27174,7 +27208,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1184" r:id="rId165" name="Control 160">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27199,7 +27233,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1185" r:id="rId166" name="Control 161">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27224,7 +27258,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1186" r:id="rId167" name="Control 162">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27249,7 +27283,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1187" r:id="rId168" name="Control 163">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27274,7 +27308,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1188" r:id="rId169" name="Control 164">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27299,7 +27333,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1189" r:id="rId170" name="Control 165">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27324,7 +27358,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1190" r:id="rId171" name="Control 166">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27349,7 +27383,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1191" r:id="rId172" name="Control 167">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27374,7 +27408,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1192" r:id="rId173" name="Control 168">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27399,7 +27433,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1193" r:id="rId174" name="Control 169">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27424,7 +27458,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1194" r:id="rId175" name="Control 170">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27449,7 +27483,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1195" r:id="rId176" name="Control 171">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27474,7 +27508,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1196" r:id="rId177" name="Control 172">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27499,7 +27533,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1197" r:id="rId178" name="Control 173">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27524,7 +27558,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1198" r:id="rId179" name="Control 174">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27549,7 +27583,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1199" r:id="rId180" name="Control 175">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27574,7 +27608,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1200" r:id="rId181" name="Control 176">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27599,7 +27633,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1201" r:id="rId182" name="Control 177">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27624,7 +27658,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1202" r:id="rId183" name="Control 178">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27649,7 +27683,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1203" r:id="rId184" name="Control 179">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27674,7 +27708,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1204" r:id="rId185" name="Control 180">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27699,7 +27733,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1205" r:id="rId186" name="Control 181">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27724,7 +27758,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1206" r:id="rId187" name="Control 182">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27749,7 +27783,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1207" r:id="rId188" name="Control 183">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27774,7 +27808,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1208" r:id="rId189" name="Control 184">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27799,7 +27833,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1209" r:id="rId190" name="Control 185">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27824,7 +27858,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1210" r:id="rId191" name="Control 186">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27849,7 +27883,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1211" r:id="rId192" name="Control 187">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27874,7 +27908,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1212" r:id="rId193" name="Control 188">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27899,7 +27933,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1213" r:id="rId194" name="Control 189">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27924,7 +27958,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1214" r:id="rId195" name="Control 190">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27949,7 +27983,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1215" r:id="rId196" name="Control 191">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27974,7 +28008,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1216" r:id="rId197" name="Control 192">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27999,7 +28033,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1217" r:id="rId198" name="Control 193">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28024,7 +28058,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1218" r:id="rId199" name="Control 194">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28049,7 +28083,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1219" r:id="rId200" name="Control 195">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28074,7 +28108,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1220" r:id="rId201" name="Control 196">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28099,7 +28133,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1221" r:id="rId202" name="Control 197">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28124,7 +28158,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1222" r:id="rId203" name="Control 198">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28149,7 +28183,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1223" r:id="rId204" name="Control 199">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28174,7 +28208,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1224" r:id="rId205" name="Control 200">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28199,7 +28233,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1225" r:id="rId206" name="Control 201">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28224,7 +28258,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1226" r:id="rId207" name="Control 202">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28249,7 +28283,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1227" r:id="rId208" name="Control 203">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28274,7 +28308,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1228" r:id="rId209" name="Control 204">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28299,7 +28333,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1229" r:id="rId210" name="Control 205">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28324,7 +28358,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1230" r:id="rId211" name="Control 206">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28349,7 +28383,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1231" r:id="rId212" name="Control 207">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28374,7 +28408,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1232" r:id="rId213" name="Control 208">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28399,7 +28433,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1233" r:id="rId214" name="Control 209">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28424,7 +28458,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1234" r:id="rId215" name="Control 210">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28449,7 +28483,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1235" r:id="rId216" name="Control 211">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28474,7 +28508,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1236" r:id="rId217" name="Control 212">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28499,7 +28533,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1237" r:id="rId218" name="Control 213">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28524,7 +28558,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1238" r:id="rId219" name="Control 214">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28549,7 +28583,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1239" r:id="rId220" name="Control 215">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28574,7 +28608,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1240" r:id="rId221" name="Control 216">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28599,7 +28633,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1241" r:id="rId222" name="Control 217">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28624,7 +28658,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1242" r:id="rId223" name="Control 218">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28649,7 +28683,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1243" r:id="rId224" name="Control 219">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28674,7 +28708,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1244" r:id="rId225" name="Control 220">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28699,7 +28733,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1245" r:id="rId226" name="Control 221">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28724,7 +28758,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1246" r:id="rId227" name="Control 222">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28749,7 +28783,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1247" r:id="rId228" name="Control 223">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28774,7 +28808,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1248" r:id="rId229" name="Control 224">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28799,7 +28833,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1249" r:id="rId230" name="Control 225">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28824,7 +28858,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1250" r:id="rId231" name="Control 226">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28849,7 +28883,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1251" r:id="rId232" name="Control 227">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28874,7 +28908,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1252" r:id="rId233" name="Control 228">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28899,7 +28933,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1253" r:id="rId234" name="Control 229">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28924,7 +28958,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1254" r:id="rId235" name="Control 230">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28949,7 +28983,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1255" r:id="rId236" name="Control 231">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28974,7 +29008,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1256" r:id="rId237" name="Control 232">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28999,7 +29033,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1257" r:id="rId238" name="Control 233">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29024,7 +29058,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1258" r:id="rId239" name="Control 234">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29049,7 +29083,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1259" r:id="rId240" name="Control 235">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29074,7 +29108,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1260" r:id="rId241" name="Control 236">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29099,7 +29133,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1261" r:id="rId242" name="Control 237">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29124,7 +29158,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1262" r:id="rId243" name="Control 238">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29149,7 +29183,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1263" r:id="rId244" name="Control 239">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29174,7 +29208,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1264" r:id="rId245" name="Control 240">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29199,7 +29233,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1265" r:id="rId246" name="Control 241">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29224,7 +29258,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1266" r:id="rId247" name="Control 242">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29249,7 +29283,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1267" r:id="rId248" name="Control 243">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29274,7 +29308,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1268" r:id="rId249" name="Control 244">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29299,7 +29333,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1269" r:id="rId250" name="Control 245">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29324,7 +29358,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1270" r:id="rId251" name="Control 246">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29349,7 +29383,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1271" r:id="rId252" name="Control 247">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29374,7 +29408,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1272" r:id="rId253" name="Control 248">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29399,7 +29433,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1273" r:id="rId254" name="Control 249">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29424,7 +29458,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1274" r:id="rId255" name="Control 250">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29449,7 +29483,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1275" r:id="rId256" name="Control 251">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29474,7 +29508,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1276" r:id="rId257" name="Control 252">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29499,7 +29533,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1277" r:id="rId258" name="Control 253">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29524,7 +29558,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1278" r:id="rId259" name="Control 254">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29549,7 +29583,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1279" r:id="rId260" name="Control 255">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29574,7 +29608,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1280" r:id="rId261" name="Control 256">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29599,7 +29633,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1281" r:id="rId262" name="Control 257">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29624,7 +29658,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1282" r:id="rId263" name="Control 258">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29649,7 +29683,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1283" r:id="rId264" name="Control 259">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29674,7 +29708,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1284" r:id="rId265" name="Control 260">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29699,7 +29733,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1285" r:id="rId266" name="Control 261">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29724,7 +29758,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1286" r:id="rId267" name="Control 262">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29749,7 +29783,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1287" r:id="rId268" name="Control 263">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29774,7 +29808,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1288" r:id="rId269" name="Control 264">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29799,7 +29833,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1289" r:id="rId270" name="Control 265">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29824,7 +29858,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1290" r:id="rId271" name="Control 266">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A843B1D-4D8F-42A1-9285-67ADA4B966CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0D7B1-CB31-41C4-B7A4-31E18C1B52A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1404" windowWidth="15996" windowHeight="8004" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding Roadmap CAP Table V1" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AWS Services in DWS V1" sheetId="2" r:id="rId3"/>
     <sheet name="Questions and Answers" sheetId="5" r:id="rId4"/>
     <sheet name="Standards V1" sheetId="6" r:id="rId5"/>
-    <sheet name="Consulting Roles" sheetId="3" r:id="rId6"/>
+    <sheet name="Price List" sheetId="3" r:id="rId6"/>
     <sheet name="Bids Topics per Industry" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="449">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1332,24 +1332,15 @@
     <t>Project Plan follows ITIL4.</t>
   </si>
   <si>
-    <t>Consulting Roles available from Lifetime Consulting</t>
-  </si>
-  <si>
     <t>Cloud Architect</t>
   </si>
   <si>
-    <t>Chief Information Officer</t>
-  </si>
-  <si>
     <t>Cloud Developer</t>
   </si>
   <si>
     <t>Agile Project Manager</t>
   </si>
   <si>
-    <t>Business Development Manager / Cloud Advisor</t>
-  </si>
-  <si>
     <t>Topics per Industry</t>
   </si>
   <si>
@@ -1426,6 +1417,48 @@
   </si>
   <si>
     <t>Data Connector Services</t>
+  </si>
+  <si>
+    <t>Client role</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud Advisor</t>
+  </si>
+  <si>
+    <t>CxO Business Development Manager /</t>
+  </si>
+  <si>
+    <t>IT Architect</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>Acting Chief Information Officer</t>
+  </si>
+  <si>
+    <t>CIO/CEO</t>
+  </si>
+  <si>
+    <t>PM/SCRUM Master</t>
+  </si>
+  <si>
+    <t>CD/SCRUM Master</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Consulting Role</t>
+  </si>
+  <si>
+    <t>Data Lakehouse</t>
+  </si>
+  <si>
+    <t>Migrate</t>
+  </si>
+  <si>
+    <t>Rollout Planning</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1470,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40B]_-;\-* #,##0.00\ [$€-40B]_-;_-* &quot;-&quot;??\ [$€-40B]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,20 +1531,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF16191F"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF46707F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF16191F"/>
-      <name val="Roboto"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1535,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1552,25 +1594,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -20822,7 +20878,7 @@
         <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F5" t="s">
         <v>387</v>
@@ -20870,10 +20926,10 @@
         <v>381</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -21035,7 +21091,7 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:F535"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
@@ -21053,7 +21109,7 @@
         <v>394</v>
       </c>
       <c r="B1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C1" t="s">
         <v>395</v>
@@ -21062,7 +21118,7 @@
         <v>396</v>
       </c>
       <c r="F1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -21070,7 +21126,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -21444,7 +21500,7 @@
         <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -21735,7 +21791,7 @@
         <v>97</v>
       </c>
       <c r="B166" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -21762,7 +21818,7 @@
         <v>100</v>
       </c>
       <c r="B172" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -21797,7 +21853,7 @@
         <v>104</v>
       </c>
       <c r="B180" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -21816,7 +21872,7 @@
         <v>106</v>
       </c>
       <c r="B184" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -21907,7 +21963,7 @@
         <v>117</v>
       </c>
       <c r="B206" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -22102,13 +22158,13 @@
         <v>141</v>
       </c>
       <c r="F254" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -30033,121 +30089,185 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F991E5-B967-4499-BADC-E373FF436A3A}">
   <sheetPr codeName="Taul2"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.21875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E1" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="14">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="16">
+        <v>60</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="17">
+        <v>150</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F4" s="18" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="G4" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="16">
+        <v>150</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="16">
+        <v>90</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B7" s="16">
+        <v>40</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="16">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" s="10">
-        <v>150</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B5" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6" s="9">
-        <v>90</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="9">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B8" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
+      <c r="C8" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30425,7 +30545,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB0D7B1-CB31-41C4-B7A4-31E18C1B52A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18494365-60D1-49B4-9037-904849ECC89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding Roadmap CAP Table V1" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Bids Topics per Industry" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="457">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -401,9 +400,6 @@
   </si>
   <si>
     <t>Apache MXNet on AWS</t>
-  </si>
-  <si>
-    <t>AWS Amplify</t>
   </si>
   <si>
     <t>AWS App Mesh</t>
@@ -1460,6 +1456,42 @@
   <si>
     <t>Rollout Planning</t>
   </si>
+  <si>
+    <t>AWS Amplify / Amplify Studio</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>Offers customers BI features on DWS Workspaces</t>
+  </si>
+  <si>
+    <r>
+      <t>SageMaker Ground Truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t> is a data labeling service</t>
+    </r>
+  </si>
+  <si>
+    <t>Amazon AppStream 2.0 is a fully managed non-persistent desktop and application service for remotely accessing your work.</t>
+  </si>
+  <si>
+    <t>DWS SaaS Learning Centre</t>
+  </si>
+  <si>
+    <t>DWS SaaS Accounting Centre</t>
+  </si>
+  <si>
+    <t>DWS Infrastucture</t>
+  </si>
+  <si>
+    <t>CDK</t>
+  </si>
 </sst>
 </file>
 
@@ -1470,7 +1502,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40B]_-;\-* #,##0.00\ [$€-40B]_-;_-* &quot;-&quot;??\ [$€-40B]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1555,6 +1587,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1577,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1627,6 +1678,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -16361,7 +16422,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16411,7 +16472,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>213360</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20824,13 +20885,13 @@
         <v>200000</v>
       </c>
       <c r="B2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" t="s">
         <v>397</v>
       </c>
-      <c r="C2" t="s">
-        <v>398</v>
-      </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -20838,19 +20899,19 @@
         <v>90000</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G3" t="s">
         <v>399</v>
-      </c>
-      <c r="G3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -20858,16 +20919,16 @@
         <v>6625</v>
       </c>
       <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
         <v>383</v>
       </c>
-      <c r="C4" t="s">
-        <v>384</v>
-      </c>
       <c r="E4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" t="s">
         <v>390</v>
-      </c>
-      <c r="F4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -20875,16 +20936,16 @@
         <v>43500</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -20892,13 +20953,13 @@
         <v>40000</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20906,16 +20967,16 @@
         <v>200000</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" t="s">
         <v>385</v>
       </c>
-      <c r="E7" t="s">
-        <v>386</v>
-      </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20923,13 +20984,13 @@
         <v>2500000</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" t="s">
         <v>411</v>
-      </c>
-      <c r="F8" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -20949,7 +21010,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -20968,7 +21029,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -21089,2202 +21150,2748 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DE2D9-DFBD-4AA0-B38C-9D396D43032D}">
   <sheetPr codeName="Taul1"/>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" style="23" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="26"/>
+    <col min="6" max="6" width="11.109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="E1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="27"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="27"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="27"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="27"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="27"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="27"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="27"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="27"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="27"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="27"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="27"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="27"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="27"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="27"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="27"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="27"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="27"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="27"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="27"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="27"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="27"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="27"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="27"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="27"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="27"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="27"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="27"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="27"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="27"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="27"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="27"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="27"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="27"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B80" s="27"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
+      <c r="B81" s="27"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
+      <c r="B83" s="27"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B84" s="27"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
+      <c r="B85" s="27"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B86" s="27"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
+      <c r="B87" s="27"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B88" s="27"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
+      <c r="B89" s="27"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B90" s="27"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
+      <c r="B91" s="27"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B92" s="27"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
+      <c r="B93" s="27"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B94" t="s">
-        <v>434</v>
+      <c r="B94" s="27" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
+      <c r="B95" s="27"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="27"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="27"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="27"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" s="27"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" s="27"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" s="27"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" s="27"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" s="27"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" s="27"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" s="27"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" s="27"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" s="27"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" s="27"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="27"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="27"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="27"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="27"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="27"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" s="27"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" s="27"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" s="27"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" s="27"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" s="27"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" s="27"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" s="27"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" s="27"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" s="27"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" s="27"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" s="27"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" s="27"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" s="27"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131" s="27"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132" s="27"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" s="27"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134" s="27"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135" s="27"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136" s="27"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137" s="27"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138" s="27"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139" s="27"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140" s="27"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141" s="27"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142" s="27"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143" s="27"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144" s="27"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145" s="27"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146" s="27"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147" s="27"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148" s="27"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149" s="27"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150" s="27"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151" s="27"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152" s="27"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153" s="27"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154" s="27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155" s="27"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156" s="27"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157" s="27"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158" s="27"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159" s="27"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B160" s="27"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
+      <c r="B161" s="27"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B162" s="27"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
+      <c r="B163" s="27"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B164" s="27"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
+      <c r="B165" s="27"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B166" t="s">
-        <v>424</v>
+      <c r="B166" s="27" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
+      <c r="B167" s="27"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B168" s="27"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
+      <c r="B169" s="27"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B170" s="27"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
+      <c r="B171" s="27"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B172" t="s">
-        <v>425</v>
+      <c r="B172" s="27" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
+      <c r="B173" s="27"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B174" s="28" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
+      <c r="B175" s="27"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B176" s="27"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
+      <c r="B177" s="27"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B178" s="27"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
+      <c r="B179" s="27"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B180" t="s">
-        <v>426</v>
+      <c r="B180" s="27" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
+      <c r="B181" s="27"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B182" s="27"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
+      <c r="B183" s="27"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B184" t="s">
-        <v>427</v>
+      <c r="B184" s="27" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
+      <c r="B185" s="27"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B186" s="27"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
+      <c r="B187" s="27"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B188" s="27"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
+      <c r="B189" s="27"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B190" s="27"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
+      <c r="B191" s="27"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B192" s="27"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
+      <c r="B193" s="27"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="B194" s="27"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
+      <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="B196" s="27"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
+      <c r="B197" s="27"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B198" s="27"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
+      <c r="B199" s="27"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="B200" s="27"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
+      <c r="B201" s="27"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="B202" s="27"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
+      <c r="B203" s="27"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B204" s="27"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
+      <c r="B205" s="27"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B206" t="s">
-        <v>429</v>
+      <c r="B206" s="27" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
+      <c r="B207" s="27"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208" s="27"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209" s="27"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210" s="27"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211" s="27"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212" s="27"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213" s="27"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" s="27"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B215" s="27"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="B216" s="27"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="27"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="B218" s="27"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="27"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="B220" s="27"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="27"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="B222" s="27"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="27"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="B224" s="27"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="27"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="B226" s="27"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="27"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="B228" s="27"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="27"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="B230" s="27"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="27"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="B232" s="27"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="27"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="B234" s="27"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="27"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="B236" s="27"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="27"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="B238" s="27"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="27"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="B240" s="27"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
+      <c r="B241" s="27"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B242" s="27"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
+      <c r="B243" s="27"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B244" s="27"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
+      <c r="B245" s="27"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B246" s="27"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
+      <c r="B247" s="27"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B248" s="27"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
+      <c r="B249" s="27"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B250" s="27"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
+      <c r="B251" s="27"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B252" s="27"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
+      <c r="B253" s="27"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F254" t="s">
-        <v>431</v>
+        <v>140</v>
+      </c>
+      <c r="B254" s="27"/>
+      <c r="F254" s="26" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
-      <c r="B255" t="s">
-        <v>432</v>
+      <c r="B255" s="27" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B256" s="27"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="27"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="B258" s="27"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="27"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="B260" s="27"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="27"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="B262" s="27"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="27"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="B264" s="27"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+      <c r="B265" s="27"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="B266" s="27"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="27"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="B268" s="27"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="27"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="B270" s="27"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="27"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="B272" s="27"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="27"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="B274" s="27"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="27"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="B276" s="27"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="27"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="B278" s="27"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="27"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="B280" s="27"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="27"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="B282" s="27"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="27"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="B284" s="27"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="27"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="B286" s="27"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="27"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="B288" s="27"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="27"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="B290" s="27"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="27"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="B292" s="27"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="27"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="B294" s="27"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="27"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="B296" s="27"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="27"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="B298" s="27"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="27"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="B300" s="27"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="27"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="B302" s="27"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="27"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="B304" s="27"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="27"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="B306" s="27"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="27"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="B308" s="27"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="27"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="B310" s="27"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="27"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="B312" s="27"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="27"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="B314" s="27"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="27"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="B316" s="27"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1"/>
+      <c r="B317" s="27"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="B318" s="27"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="27"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="B320" s="27"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+      <c r="B321" s="27"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="B322" s="27"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1"/>
+      <c r="B323" s="27"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="B324" s="27"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+      <c r="B325" s="27"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="B326" s="27"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1"/>
+      <c r="B327" s="27"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="27"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="27"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="27"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="1"/>
+      <c r="B331" s="27"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="27"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="27"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="27"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1"/>
+      <c r="B335" s="27"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="27"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="1"/>
+      <c r="B337" s="27"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="27"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+      <c r="B339" s="27"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="27"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+      <c r="B341" s="27"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="27"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+      <c r="B343" s="27"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="27"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="27"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="27"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="1"/>
+      <c r="B347" s="27"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="27"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="27"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="27"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="27"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="B352" s="27"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+      <c r="B353" s="27"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="B354" s="27"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="27"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="B356" s="27"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1"/>
+      <c r="B357" s="27"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="B358" s="27"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1"/>
+      <c r="B359" s="27"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="B360" s="27"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="27"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="B362" s="27"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="1"/>
+      <c r="B363" s="27"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="B364" s="27"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="27"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="B366" s="27"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="1"/>
+      <c r="B367" s="27"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="B368" s="27"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1"/>
+      <c r="B369" s="27"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="B370" s="27"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+      <c r="B371" s="27"/>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="B372" s="27"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1"/>
+      <c r="B373" s="27"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="B374" s="27"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="27"/>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="B376" s="27"/>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="1"/>
+      <c r="B377" s="27"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="B378" s="27"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="27"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" s="1"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="B380" s="27"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="1"/>
+      <c r="B381" s="27"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="B382" s="27"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="1"/>
+      <c r="B383" s="27"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="B384" s="27"/>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+      <c r="B385" s="27"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="B386" s="27"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="1"/>
+      <c r="B387" s="27"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="B388" s="27"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="1"/>
+      <c r="B389" s="27"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="B390" s="27"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="1"/>
+      <c r="B391" s="27"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="B392" s="27"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="1"/>
+      <c r="B393" s="27"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="B394" s="27"/>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="27"/>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="B396" s="27"/>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="1"/>
+      <c r="B397" s="27"/>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="1"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="B398" s="27"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="1"/>
+      <c r="B399" s="27"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="B400" s="27"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="1"/>
+      <c r="B401" s="27"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="B402" s="27"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="1"/>
+      <c r="B403" s="27"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="B404" s="27"/>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="1"/>
+      <c r="B405" s="27"/>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="B406" s="27"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="27"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="B408" s="27"/>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="1"/>
+      <c r="B409" s="27"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="B410" s="27"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="27"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="B412" s="27"/>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="1"/>
+      <c r="B413" s="27"/>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="B414" s="27"/>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="1"/>
+      <c r="B415" s="27"/>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="B416" s="27"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="1"/>
+      <c r="B417" s="27"/>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="B418" s="27"/>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="1"/>
+      <c r="B419" s="27"/>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="B420" s="27"/>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="27"/>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="B422" s="27"/>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="1"/>
+      <c r="B423" s="27"/>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="B424" s="27"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="27"/>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="B426" s="27"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="1"/>
+      <c r="B427" s="27"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="1"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="B428" s="27"/>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="1"/>
+      <c r="B429" s="27"/>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="B430" s="27"/>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="1"/>
+      <c r="B431" s="27"/>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="B432" s="27"/>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="1"/>
+      <c r="B433" s="27"/>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="B434" s="27"/>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="1"/>
+      <c r="B435" s="27"/>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="B436" s="27"/>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="27"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="B438" s="27"/>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="1"/>
+      <c r="B439" s="27"/>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" s="1"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+      <c r="B440" s="27"/>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="27"/>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="27"/>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="1"/>
+      <c r="B443" s="27"/>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="27"/>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="1"/>
+      <c r="B445" s="27"/>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="27"/>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+      <c r="B447" s="27"/>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="B448" s="27"/>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="1"/>
+      <c r="B449" s="27"/>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" s="1"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="27"/>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="1"/>
+      <c r="B451" s="27"/>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" s="1"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="27"/>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="1"/>
+      <c r="B453" s="27"/>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="27"/>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="1"/>
+      <c r="B455" s="27"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="1"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="27"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="27"/>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" s="1"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="27"/>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="1"/>
+      <c r="B459" s="27"/>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+      <c r="B460" s="27"/>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="1"/>
+      <c r="B461" s="27"/>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+      <c r="B462" s="27"/>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="1"/>
+      <c r="B463" s="27"/>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+      <c r="B464" s="27"/>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="1"/>
+      <c r="B465" s="27"/>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" s="1"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+      <c r="B466" s="27"/>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="1"/>
+      <c r="B467" s="27"/>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" s="1"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+      <c r="B468" s="27"/>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="1"/>
+      <c r="B469" s="27"/>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" s="1"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+      <c r="B470" s="27"/>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="1"/>
+      <c r="B471" s="27"/>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" s="1"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+      <c r="B472" s="27"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="1"/>
+      <c r="B473" s="27"/>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="B474" s="27"/>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="1"/>
+      <c r="B475" s="27"/>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="B476" s="27"/>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="1"/>
+      <c r="B477" s="27"/>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+      <c r="B478" s="27"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="1"/>
+      <c r="B479" s="27"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" s="1"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="B480" s="27"/>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="1"/>
+      <c r="B481" s="27"/>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" s="1"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
+      <c r="B482" s="27"/>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="1"/>
+      <c r="B483" s="27"/>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
+      <c r="B484" s="27"/>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="1"/>
+      <c r="B485" s="27"/>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" s="1"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+      <c r="B486" s="27"/>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="1"/>
+      <c r="B487" s="27"/>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" s="1"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+      <c r="B488" s="27"/>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="1"/>
+      <c r="B489" s="27"/>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+      <c r="B490" s="27"/>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="1"/>
+      <c r="B491" s="27"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" s="1"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
+      <c r="B492" s="27"/>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+      <c r="B493" s="27"/>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
+      <c r="B494" s="27"/>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="1"/>
+      <c r="B495" s="27"/>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" s="1"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
+      <c r="B496" s="27"/>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="1"/>
+      <c r="B497" s="27"/>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" s="1"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
+      <c r="B498" s="27"/>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="1"/>
+      <c r="B499" s="27"/>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" s="1"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
+      <c r="B500" s="27"/>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="1"/>
+      <c r="B501" s="27"/>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" s="1"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
+      <c r="B502" s="27"/>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="1"/>
+      <c r="B503" s="27"/>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503" s="1"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
+      <c r="B504" s="27"/>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+      <c r="B505" s="27"/>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+      <c r="B506" s="27"/>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="1"/>
+      <c r="B507" s="27"/>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507" s="1"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
+      <c r="B508" s="27"/>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="1"/>
+      <c r="B509" s="27"/>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
+      <c r="B510" s="27"/>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="1"/>
+      <c r="B511" s="27"/>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A511" s="1"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+      <c r="B512" s="27"/>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="1"/>
+      <c r="B513" s="27"/>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A513" s="1"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
+      <c r="B514" s="27"/>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="1"/>
+      <c r="B515" s="27"/>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A515" s="1"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
+      <c r="B516" s="27"/>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="1"/>
+      <c r="B517" s="27"/>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A517" s="1"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
+      <c r="B518" s="27"/>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="1"/>
+      <c r="B519" s="27"/>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A520" s="1" t="s">
+      <c r="B520" s="27"/>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="1"/>
+      <c r="B521" s="27"/>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A521" s="1"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A522" s="1" t="s">
+      <c r="B522" s="27"/>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="1"/>
+      <c r="B523" s="27"/>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A524" s="1" t="s">
+      <c r="B524" s="27"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="1"/>
+      <c r="B525" s="27"/>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A525" s="1"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A526" s="1" t="s">
+      <c r="B526" s="27"/>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="1"/>
+      <c r="B527" s="27"/>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A527" s="1"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A528" s="1" t="s">
+      <c r="B528" s="27"/>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="1"/>
+      <c r="B529" s="27"/>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A529" s="1"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
+      <c r="B530" s="27"/>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="1"/>
+      <c r="B531" s="27"/>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531" s="1"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="s">
+      <c r="B532" s="27"/>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="1"/>
+      <c r="B533" s="27"/>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A533" s="1"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A534" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B534" s="27"/>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
     </row>
   </sheetData>
@@ -27271,7 +27878,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1131" r:id="rId165" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27321,7 +27928,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1129" r:id="rId167" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27346,7 +27953,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1128" r:id="rId168" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29096,7 +29703,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1058" r:id="rId238" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29146,7 +29753,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1056" r:id="rId240" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29571,7 +30178,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1039" r:id="rId257" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29646,7 +30253,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1036" r:id="rId260" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29671,7 +30278,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1035" r:id="rId261" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29871,7 +30478,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1027" r:id="rId269" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29896,7 +30503,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId270" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29959,97 +30566,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -30070,15 +30677,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" t="s">
         <v>373</v>
-      </c>
-      <c r="B1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -30091,7 +30698,7 @@
   <sheetPr codeName="Taul2"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -30109,7 +30716,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E1" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1" s="14">
         <v>44562</v>
@@ -30117,27 +30724,27 @@
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="16">
         <v>60</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -30148,42 +30755,42 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="17">
         <v>150</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>417</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="16">
         <v>150</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -30194,39 +30801,39 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="16">
         <v>90</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" s="16">
         <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -30236,17 +30843,17 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="16">
         <v>60</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -30478,7 +31085,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="3074" r:id="rId15" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId13">
+          <controlPr defaultSize="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30490,7 +31097,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>213360</xdr:rowOff>
+                <xdr:rowOff>259080</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -30502,8 +31109,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId16" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId13">
+        <control shapeId="3073" r:id="rId17" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30515,14 +31122,14 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId16" name="Control 1"/>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId17" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -30545,7 +31152,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -30553,7 +31160,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -30561,7 +31168,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -30569,7 +31176,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -30577,7 +31184,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -30585,7 +31192,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -30593,7 +31200,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
@@ -30601,7 +31208,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
@@ -30609,7 +31216,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -30617,7 +31224,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -30625,7 +31232,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -30633,7 +31240,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -30641,7 +31248,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -30649,7 +31256,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -30657,7 +31264,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -30665,7 +31272,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -30673,7 +31280,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -30681,7 +31288,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -30689,7 +31296,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -30697,7 +31304,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -30705,7 +31312,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -30713,7 +31320,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -30721,7 +31328,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
@@ -30729,7 +31336,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
@@ -30737,7 +31344,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
@@ -30745,7 +31352,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
@@ -30753,7 +31360,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
@@ -30761,7 +31368,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
@@ -30769,7 +31376,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
@@ -30777,7 +31384,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
@@ -30785,7 +31392,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
@@ -30793,7 +31400,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
@@ -30801,7 +31408,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
@@ -30809,7 +31416,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
@@ -30817,7 +31424,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
@@ -30825,7 +31432,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -30833,7 +31440,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -30841,7 +31448,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -30849,7 +31456,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
@@ -30857,7 +31464,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
@@ -30865,7 +31472,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -30873,7 +31480,7 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
@@ -30881,7 +31488,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
@@ -30889,7 +31496,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
@@ -30897,7 +31504,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
@@ -30905,7 +31512,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
@@ -30913,7 +31520,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -30921,7 +31528,7 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
@@ -30929,7 +31536,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
@@ -30937,7 +31544,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
@@ -30945,7 +31552,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
@@ -30953,7 +31560,7 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
@@ -30961,7 +31568,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
@@ -30969,7 +31576,7 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
@@ -30977,7 +31584,7 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
@@ -30985,7 +31592,7 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
@@ -30993,7 +31600,7 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
@@ -31001,7 +31608,7 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
@@ -31009,7 +31616,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
@@ -31017,7 +31624,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
@@ -31025,7 +31632,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
@@ -31033,7 +31640,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
@@ -31041,7 +31648,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
@@ -31049,7 +31656,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
@@ -31057,7 +31664,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
@@ -31065,7 +31672,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
@@ -31073,7 +31680,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
@@ -31081,7 +31688,7 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
@@ -31089,7 +31696,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
@@ -31097,7 +31704,7 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
@@ -31105,7 +31712,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
@@ -31113,7 +31720,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
@@ -31121,7 +31728,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
@@ -31129,7 +31736,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -32968,6 +33575,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x01010030FFAE185255B943BF00A4921C9C6203" ma:contentTypeVersion="14" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="a1010c0d9688ed6954ce79fe450af9ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2" xmlns:ns4="91f93370-6b7a-40ed-8652-caead1fcc602" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa2f3a98f38f2e2ec026df8210b8b497" ns3:_="" ns4:_="">
     <xsd:import namespace="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2"/>
@@ -33196,7 +33809,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -33205,13 +33818,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1BD0B7C-A80C-4FF4-8969-2FF6469E8826}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2"/>
+    <ds:schemaRef ds:uri="91f93370-6b7a-40ed-8652-caead1fcc602"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C7850BC-DCEF-4971-82D1-E9B261007C6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33230,27 +33854,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60D7B43-750D-4ED0-A081-477884AB9049}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1BD0B7C-A80C-4FF4-8969-2FF6469E8826}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b385e7dc-4d6b-4b39-8a38-56fc2755f3d2"/>
-    <ds:schemaRef ds:uri="91f93370-6b7a-40ed-8652-caead1fcc602"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18494365-60D1-49B4-9037-904849ECC89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186DC258-1C34-4EB4-A708-B46F26F0A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="464">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1298,9 +1298,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Bootstrapped</t>
   </si>
   <si>
@@ -1492,6 +1489,66 @@
   <si>
     <t>CDK</t>
   </si>
+  <si>
+    <r>
+      <t>AWS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Control Tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a well-architected service that can help your organization meet your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>compliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> needs with guardrails and best practices.</t>
+    </r>
+  </si>
+  <si>
+    <t>Organisation Units Ous are set into AWS Control Tower</t>
+  </si>
+  <si>
+    <t>Lifetime Studios</t>
+  </si>
+  <si>
+    <t>Lifetime Consulting</t>
+  </si>
+  <si>
+    <t>Cloud9</t>
+  </si>
+  <si>
+    <t>dws4</t>
+  </si>
+  <si>
+    <t>Lifetime Group</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
 </sst>
 </file>
 
@@ -1502,7 +1559,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40B]_-;\-* #,##0.00\ [$€-40B]_-;_-* &quot;-&quot;??\ [$€-40B]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,6 +1663,17 @@
       <color rgb="FF333333"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1628,7 +1696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1688,6 +1756,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -20885,13 +20959,13 @@
         <v>200000</v>
       </c>
       <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s">
         <v>396</v>
       </c>
-      <c r="C2" t="s">
-        <v>397</v>
-      </c>
       <c r="E2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -20905,13 +20979,13 @@
         <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" t="s">
         <v>398</v>
-      </c>
-      <c r="G3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -20939,7 +21013,7 @@
         <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F5" t="s">
         <v>386</v>
@@ -20959,7 +21033,7 @@
         <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20987,10 +21061,10 @@
         <v>380</v>
       </c>
       <c r="E8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" t="s">
         <v>410</v>
-      </c>
-      <c r="F8" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -21029,7 +21103,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -21150,74 +21224,82 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DE2D9-DFBD-4AA0-B38C-9D396D43032D}">
   <sheetPr codeName="Taul1"/>
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
     <col min="2" max="2" width="41.5546875" style="23" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="26"/>
-    <col min="6" max="6" width="11.109375" style="26" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14" style="26" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>393</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="24" t="s">
-        <v>395</v>
+      <c r="D1" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>459</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -21225,54 +21307,54 @@
         <v>392</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="27"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="27"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -21667,7 +21749,7 @@
         <v>61</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -21969,7 +22051,7 @@
         <v>91</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -22031,7 +22113,7 @@
         <v>97</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -22063,7 +22145,7 @@
         <v>100</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -22075,7 +22157,7 @@
         <v>101</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -22107,7 +22189,7 @@
         <v>104</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -22129,7 +22211,7 @@
         <v>106</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -22241,7 +22323,7 @@
         <v>117</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -22280,13 +22362,13 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B214" s="27"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B215" s="27"/>
     </row>
@@ -22416,86 +22498,86 @@
       </c>
       <c r="B240" s="27"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="27"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B242" s="27"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="27"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B244" s="27"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="27"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B246" s="27"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="27"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B248" s="27"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="27"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B250" s="27"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="27"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B252" s="27"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="27"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B254" s="27"/>
-      <c r="F254" s="26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>141</v>
       </c>
@@ -22581,81 +22663,92 @@
       </c>
       <c r="B272" s="27"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="27"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B274" s="27"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="27"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B276" s="27"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="27"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B278" s="27"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="27"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B280" s="27"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D280" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F280" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="27"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B282" s="27"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="27"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B284" s="27"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="27"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B286" s="27"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="27"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>157</v>
       </c>
@@ -27028,336 +27121,336 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1165" r:id="rId130" name="Control 141">
+          <controlPr defaultSize="0" r:id="rId131">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>282</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>283</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1165" r:id="rId130" name="Control 141"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1164" r:id="rId132" name="Control 140">
+          <controlPr defaultSize="0" r:id="rId131">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>280</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>281</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1164" r:id="rId132" name="Control 140"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1163" r:id="rId133" name="Control 139">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>282</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>283</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1165" r:id="rId130" name="Control 141"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1164" r:id="rId131" name="Control 140">
+                <xdr:row>278</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>279</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1163" r:id="rId133" name="Control 139"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1162" r:id="rId134" name="Control 138">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>280</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>281</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1164" r:id="rId131" name="Control 140"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1163" r:id="rId132" name="Control 139">
+                <xdr:row>276</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>277</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1162" r:id="rId134" name="Control 138"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1161" r:id="rId135" name="Control 137">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>278</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>279</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1163" r:id="rId132" name="Control 139"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1162" r:id="rId133" name="Control 138">
+                <xdr:row>274</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>275</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1161" r:id="rId135" name="Control 137"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1160" r:id="rId136" name="Control 136">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>276</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>277</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1162" r:id="rId133" name="Control 138"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1161" r:id="rId134" name="Control 137">
+                <xdr:row>272</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>273</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1160" r:id="rId136" name="Control 136"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1159" r:id="rId137" name="Control 135">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>274</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>275</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1161" r:id="rId134" name="Control 137"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1160" r:id="rId135" name="Control 136">
+                <xdr:row>270</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>271</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1159" r:id="rId137" name="Control 135"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1158" r:id="rId138" name="Control 134">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>272</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>273</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1160" r:id="rId135" name="Control 136"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1159" r:id="rId136" name="Control 135">
+                <xdr:row>268</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>269</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1158" r:id="rId138" name="Control 134"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1157" r:id="rId139" name="Control 133">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>270</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>271</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1159" r:id="rId136" name="Control 135"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1158" r:id="rId137" name="Control 134">
+                <xdr:row>266</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>267</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1157" r:id="rId139" name="Control 133"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1156" r:id="rId140" name="Control 132">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>268</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>269</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1158" r:id="rId137" name="Control 134"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1157" r:id="rId138" name="Control 133">
+                <xdr:row>264</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>265</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1156" r:id="rId140" name="Control 132"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1155" r:id="rId141" name="Control 131">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>266</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>267</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1157" r:id="rId138" name="Control 133"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1156" r:id="rId139" name="Control 132">
+                <xdr:row>262</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>263</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1155" r:id="rId141" name="Control 131"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1154" r:id="rId142" name="Control 130">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>264</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>265</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1156" r:id="rId139" name="Control 132"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1155" r:id="rId140" name="Control 131">
+                <xdr:row>260</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>261</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1154" r:id="rId142" name="Control 130"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1153" r:id="rId143" name="Control 129">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>262</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>263</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1155" r:id="rId140" name="Control 131"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1154" r:id="rId141" name="Control 130">
+                <xdr:row>258</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>259</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1153" r:id="rId143" name="Control 129"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1152" r:id="rId144" name="Control 128">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>260</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>261</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1154" r:id="rId141" name="Control 130"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1153" r:id="rId142" name="Control 129">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>258</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>259</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1153" r:id="rId142" name="Control 129"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1152" r:id="rId143" name="Control 128">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>256</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -27372,13 +27465,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1152" r:id="rId143" name="Control 128"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1151" r:id="rId144" name="Control 127">
-          <controlPr defaultSize="0" r:id="rId145">
+        <control shapeId="1152" r:id="rId144" name="Control 128"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1151" r:id="rId145" name="Control 127">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27397,7 +27490,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1151" r:id="rId144" name="Control 127"/>
+        <control shapeId="1151" r:id="rId145" name="Control 127"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -27878,7 +27971,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1131" r:id="rId165" name="Control 107">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27928,7 +28021,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1129" r:id="rId167" name="Control 105">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27953,7 +28046,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1128" r:id="rId168" name="Control 104">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -27978,7 +28071,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1127" r:id="rId169" name="Control 103">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28253,7 +28346,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1116" r:id="rId180" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28278,7 +28371,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1115" r:id="rId181" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28303,7 +28396,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1114" r:id="rId182" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28353,7 +28446,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1112" r:id="rId184" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28378,7 +28471,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1111" r:id="rId185" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28403,7 +28496,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1110" r:id="rId186" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -28478,7 +28571,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1107" r:id="rId189" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29378,7 +29471,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1071" r:id="rId225" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29703,7 +29796,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1058" r:id="rId238" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -29753,7 +29846,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1056" r:id="rId240" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30178,7 +30271,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1039" r:id="rId257" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30253,7 +30346,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1036" r:id="rId260" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30278,7 +30371,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1035" r:id="rId261" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30453,7 +30546,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1028" r:id="rId268" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30478,7 +30571,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1027" r:id="rId269" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30503,7 +30596,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId270" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30528,7 +30621,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId271" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId145">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -30685,7 +30778,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -30716,7 +30809,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E1" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1" s="14">
         <v>44562</v>
@@ -30724,27 +30817,27 @@
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>412</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="16">
         <v>60</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -30755,42 +30848,42 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" s="17">
         <v>150</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>416</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="16">
         <v>150</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -30801,39 +30894,39 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" s="16">
         <v>90</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="16">
         <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -30843,17 +30936,17 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="16">
         <v>60</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -31152,7 +31245,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186DC258-1C34-4EB4-A708-B46F26F0A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E94A57C-DA23-4DA6-A479-DB6E792FAA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding Roadmap CAP Table V1" sheetId="7" r:id="rId1"/>
     <sheet name="V1 Product DynamoDB" sheetId="1" r:id="rId2"/>
     <sheet name="AWS Services in DWS V1" sheetId="2" r:id="rId3"/>
-    <sheet name="Questions and Answers" sheetId="5" r:id="rId4"/>
-    <sheet name="Standards V1" sheetId="6" r:id="rId5"/>
-    <sheet name="Price List" sheetId="3" r:id="rId6"/>
-    <sheet name="Bids Topics per Industry" sheetId="4" r:id="rId7"/>
+    <sheet name="Standards V1" sheetId="6" r:id="rId4"/>
+    <sheet name="Price List" sheetId="3" r:id="rId5"/>
+    <sheet name="Bids Topics per Industry" sheetId="4" r:id="rId6"/>
+    <sheet name="Advisory Board Questions" sheetId="8" r:id="rId7"/>
+    <sheet name="Cert Questions and Answers" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="478">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1549,6 +1550,48 @@
   <si>
     <t>root</t>
   </si>
+  <si>
+    <t>Veturi Partneri täyttää</t>
+  </si>
+  <si>
+    <t>Advisory Board 2022</t>
+  </si>
+  <si>
+    <t>Advisory Board  - The Smart questions for Veturi Partnership RRF Enterprise  Roadmap Holders.  (and to reach VC Capital):</t>
+  </si>
+  <si>
+    <t>1. How do you currently solve this problem of change?</t>
+  </si>
+  <si>
+    <t>2. Why do you do it this way?</t>
+  </si>
+  <si>
+    <t>3. Would you change anything about this with DWS?</t>
+  </si>
+  <si>
+    <t>4. How would changing that help you?</t>
+  </si>
+  <si>
+    <t>5. Will you walk me through how that happened last time?</t>
+  </si>
+  <si>
+    <t>6. Who pays for this and why?</t>
+  </si>
+  <si>
+    <t>7. Is there anything else I should be asking to understand this better?</t>
+  </si>
+  <si>
+    <t>8. May I observe how you work to understand what you do better?</t>
+  </si>
+  <si>
+    <t>9. Who else should I be talking to to learn about this?</t>
+  </si>
+  <si>
+    <t>Veturipartnerin nimi</t>
+  </si>
+  <si>
+    <t>Veturipartnerin Roadmap</t>
+  </si>
 </sst>
 </file>
 
@@ -1559,7 +1602,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40B]_-;\-* #,##0.00\ [$€-40B]_-;_-* &quot;-&quot;??\ [$€-40B]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1569,12 +1612,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF16191F"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF16191F"/>
       <name val="Roboto"/>
     </font>
@@ -1659,6 +1696,14 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Roboto"/>
@@ -1672,6 +1717,32 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF16191F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1694,73 +1765,83 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20955,7 +21036,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>200000</v>
       </c>
       <c r="B2" t="s">
@@ -20969,7 +21050,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>90000</v>
       </c>
       <c r="B3" t="s">
@@ -20989,7 +21070,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>6625</v>
       </c>
       <c r="B4" t="s">
@@ -21006,7 +21087,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43500</v>
       </c>
       <c r="B5" t="s">
@@ -21023,7 +21104,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>40000</v>
       </c>
       <c r="B6" t="s">
@@ -21037,7 +21118,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>200000</v>
       </c>
       <c r="B7" t="s">
@@ -21054,7 +21135,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2500000</v>
       </c>
       <c r="B8" t="s">
@@ -21226,46 +21307,46 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:I535"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" style="23" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14" style="26" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" style="22" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>460</v>
       </c>
     </row>
@@ -21273,1307 +21354,1307 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="27"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="27"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="26"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="27"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="27"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="27"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="27"/>
+      <c r="B50" s="26"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="27"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="27"/>
+      <c r="B52" s="26"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="27"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="27"/>
+      <c r="B54" s="26"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="26"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="27"/>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="27"/>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="27"/>
+      <c r="B59" s="26"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="27"/>
+      <c r="B60" s="26"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="27"/>
+      <c r="B61" s="26"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="27"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="26"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="26"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="27"/>
+      <c r="B69" s="26"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="26"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="26"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="27"/>
+      <c r="B73" s="26"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="27"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="27"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="27"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="27"/>
+      <c r="B78" s="26"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="27"/>
+      <c r="B80" s="26"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="27"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="27"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="27"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B86" s="27"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="27"/>
+      <c r="B87" s="26"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="27"/>
+      <c r="B89" s="26"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="27"/>
+      <c r="B90" s="26"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="27"/>
+      <c r="B91" s="26"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="27"/>
+      <c r="B92" s="26"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="27"/>
+      <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B96" s="27"/>
+      <c r="B96" s="26"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="27"/>
+      <c r="B97" s="26"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="27"/>
+      <c r="B98" s="26"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="27"/>
+      <c r="B99" s="26"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B100" s="27"/>
+      <c r="B100" s="26"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="27"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="27"/>
+      <c r="B102" s="26"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="27"/>
+      <c r="B103" s="26"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B104" s="27"/>
+      <c r="B104" s="26"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="27"/>
+      <c r="B105" s="26"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="27"/>
+      <c r="B107" s="26"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B108" s="27"/>
+      <c r="B108" s="26"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="27"/>
+      <c r="B109" s="26"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="27"/>
+      <c r="B110" s="26"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-      <c r="B111" s="27"/>
+      <c r="B111" s="26"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B112" s="27"/>
+      <c r="B112" s="26"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B114" s="27"/>
+      <c r="B114" s="26"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="26"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="27"/>
+      <c r="B116" s="26"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="27"/>
+      <c r="B117" s="26"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="26"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="26"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B120" s="27"/>
+      <c r="B120" s="26"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="27"/>
+      <c r="B121" s="26"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B122" s="27"/>
+      <c r="B122" s="26"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="27"/>
+      <c r="B123" s="26"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="27"/>
+      <c r="B125" s="26"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="26"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="27"/>
+      <c r="B127" s="26"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="27"/>
+      <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="27"/>
+      <c r="B129" s="26"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B130" s="27"/>
+      <c r="B130" s="26"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-      <c r="B131" s="27"/>
+      <c r="B131" s="26"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B132" s="27"/>
+      <c r="B132" s="26"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-      <c r="B133" s="27"/>
+      <c r="B133" s="26"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B134" s="27"/>
+      <c r="B134" s="26"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-      <c r="B135" s="27"/>
+      <c r="B135" s="26"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B136" s="27"/>
+      <c r="B136" s="26"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
-      <c r="B137" s="27"/>
+      <c r="B137" s="26"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B138" s="27"/>
+      <c r="B138" s="26"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="27"/>
+      <c r="B139" s="26"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="27"/>
+      <c r="B140" s="26"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-      <c r="B141" s="27"/>
+      <c r="B141" s="26"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B142" s="27"/>
+      <c r="B142" s="26"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B144" s="27"/>
+      <c r="B144" s="26"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-      <c r="B145" s="27"/>
+      <c r="B145" s="26"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B146" s="27"/>
+      <c r="B146" s="26"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
-      <c r="B147" s="27"/>
+      <c r="B147" s="26"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="27"/>
+      <c r="B148" s="26"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
-      <c r="B149" s="27"/>
+      <c r="B149" s="26"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B150" s="27"/>
+      <c r="B150" s="26"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-      <c r="B151" s="27"/>
+      <c r="B151" s="26"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B152" s="27"/>
+      <c r="B152" s="26"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
-      <c r="B153" s="27"/>
+      <c r="B153" s="26"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="26" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
-      <c r="B155" s="27"/>
+      <c r="B155" s="26"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B156" s="27"/>
+      <c r="B156" s="26"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-      <c r="B157" s="27"/>
+      <c r="B157" s="26"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B158" s="27"/>
+      <c r="B158" s="26"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
-      <c r="B159" s="27"/>
+      <c r="B159" s="26"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B160" s="27"/>
+      <c r="B160" s="26"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="27"/>
+      <c r="B161" s="26"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
-      <c r="B163" s="27"/>
+      <c r="B163" s="26"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B164" s="27"/>
+      <c r="B164" s="26"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
-      <c r="B165" s="27"/>
+      <c r="B165" s="26"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B166" s="27" t="s">
+      <c r="B166" s="26" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
-      <c r="B167" s="27"/>
+      <c r="B167" s="26"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B168" s="27"/>
+      <c r="B168" s="26"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="27"/>
+      <c r="B169" s="26"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B170" s="27"/>
+      <c r="B170" s="26"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
-      <c r="B171" s="27"/>
+      <c r="B171" s="26"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="B172" s="26" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
-      <c r="B173" s="27"/>
+      <c r="B173" s="26"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B174" s="28" t="s">
+      <c r="B174" s="27" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B176" s="27"/>
+      <c r="B176" s="26"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
-      <c r="B177" s="27"/>
+      <c r="B177" s="26"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="27"/>
+      <c r="B178" s="26"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
-      <c r="B179" s="27"/>
+      <c r="B179" s="26"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="26" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-      <c r="B181" s="27"/>
+      <c r="B181" s="26"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B182" s="27"/>
+      <c r="B182" s="26"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
-      <c r="B183" s="27"/>
+      <c r="B183" s="26"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B184" s="26" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="27"/>
+      <c r="B185" s="26"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B186" s="27"/>
+      <c r="B186" s="26"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-      <c r="B187" s="27"/>
+      <c r="B187" s="26"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B188" s="27"/>
+      <c r="B188" s="26"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
-      <c r="B189" s="27"/>
+      <c r="B189" s="26"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B190" s="27"/>
+      <c r="B190" s="26"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-      <c r="B191" s="27"/>
+      <c r="B191" s="26"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B192" s="27"/>
+      <c r="B192" s="26"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
-      <c r="B193" s="27"/>
+      <c r="B193" s="26"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B194" s="27"/>
+      <c r="B194" s="26"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B196" s="27"/>
+      <c r="B196" s="26"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
-      <c r="B197" s="27"/>
+      <c r="B197" s="26"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B198" s="27"/>
+      <c r="B198" s="26"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-      <c r="B199" s="27"/>
+      <c r="B199" s="26"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B200" s="27"/>
+      <c r="B200" s="26"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B202" s="27"/>
+      <c r="B202" s="26"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
-      <c r="B203" s="27"/>
+      <c r="B203" s="26"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B204" s="27"/>
+      <c r="B204" s="26"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
-      <c r="B205" s="27"/>
+      <c r="B205" s="26"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B206" s="27" t="s">
+      <c r="B206" s="26" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-      <c r="B207" s="27"/>
+      <c r="B207" s="26"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B208" s="27"/>
+      <c r="B208" s="26"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-      <c r="B209" s="27"/>
+      <c r="B209" s="26"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B210" s="27"/>
+      <c r="B210" s="26"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
-      <c r="B211" s="27"/>
+      <c r="B211" s="26"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
-      <c r="B213" s="27"/>
+      <c r="B213" s="26"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B214" s="27"/>
+      <c r="B214" s="26"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B216" s="27"/>
+      <c r="B216" s="26"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
-      <c r="B217" s="27"/>
+      <c r="B217" s="26"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B218" s="27"/>
+      <c r="B218" s="26"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
-      <c r="B219" s="27"/>
+      <c r="B219" s="26"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B220" s="27"/>
+      <c r="B220" s="26"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
-      <c r="B221" s="27"/>
+      <c r="B221" s="26"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B222" s="27"/>
+      <c r="B222" s="26"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
-      <c r="B223" s="27"/>
+      <c r="B223" s="26"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B224" s="27"/>
+      <c r="B224" s="26"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
-      <c r="B225" s="27"/>
+      <c r="B225" s="26"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B226" s="27"/>
+      <c r="B226" s="26"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B228" s="27"/>
+      <c r="B228" s="26"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
-      <c r="B229" s="27"/>
+      <c r="B229" s="26"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B230" s="27"/>
+      <c r="B230" s="26"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
-      <c r="B231" s="27"/>
+      <c r="B231" s="26"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B232" s="27"/>
+      <c r="B232" s="26"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B234" s="27"/>
+      <c r="B234" s="26"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
-      <c r="B235" s="27"/>
+      <c r="B235" s="26"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B236" s="27"/>
+      <c r="B236" s="26"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
-      <c r="B237" s="27"/>
+      <c r="B237" s="26"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B238" s="27"/>
+      <c r="B238" s="26"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
-      <c r="B239" s="27"/>
+      <c r="B239" s="26"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B240" s="27"/>
+      <c r="B240" s="26"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
-      <c r="B241" s="27"/>
+      <c r="B241" s="26"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B242" s="27"/>
+      <c r="B242" s="26"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
-      <c r="B243" s="27"/>
+      <c r="B243" s="26"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B244" s="27"/>
+      <c r="B244" s="26"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
-      <c r="B245" s="27"/>
+      <c r="B245" s="26"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B246" s="27"/>
+      <c r="B246" s="26"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
-      <c r="B247" s="27"/>
+      <c r="B247" s="26"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B248" s="27"/>
+      <c r="B248" s="26"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
-      <c r="B249" s="27"/>
+      <c r="B249" s="26"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B250" s="27"/>
+      <c r="B250" s="26"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
-      <c r="B251" s="27"/>
+      <c r="B251" s="26"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B252" s="27"/>
+      <c r="B252" s="26"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B254" s="27"/>
-      <c r="G254" s="26" t="s">
+      <c r="B254" s="26"/>
+      <c r="G254" s="25" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
-      <c r="B255" s="27" t="s">
+      <c r="B255" s="26" t="s">
         <v>430</v>
       </c>
     </row>
@@ -22581,1408 +22662,1408 @@
       <c r="A256" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B256" s="27"/>
+      <c r="B256" s="26"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
-      <c r="B257" s="27"/>
+      <c r="B257" s="26"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B258" s="27"/>
+      <c r="B258" s="26"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
-      <c r="B259" s="27"/>
+      <c r="B259" s="26"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B260" s="27"/>
+      <c r="B260" s="26"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
-      <c r="B261" s="27"/>
+      <c r="B261" s="26"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
-      <c r="B263" s="27"/>
+      <c r="B263" s="26"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B264" s="27"/>
+      <c r="B264" s="26"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
-      <c r="B265" s="27"/>
+      <c r="B265" s="26"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B266" s="27"/>
+      <c r="B266" s="26"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
-      <c r="B267" s="27"/>
+      <c r="B267" s="26"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B268" s="27"/>
+      <c r="B268" s="26"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
-      <c r="B269" s="27"/>
+      <c r="B269" s="26"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B270" s="27"/>
+      <c r="B270" s="26"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
-      <c r="B271" s="27"/>
+      <c r="B271" s="26"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B272" s="27"/>
+      <c r="B272" s="26"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
-      <c r="B273" s="27"/>
+      <c r="B273" s="26"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B274" s="27"/>
+      <c r="B274" s="26"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
-      <c r="B275" s="27"/>
+      <c r="B275" s="26"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B276" s="27"/>
+      <c r="B276" s="26"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
-      <c r="B277" s="27"/>
+      <c r="B277" s="26"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B278" s="27"/>
+      <c r="B278" s="26"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
-      <c r="B279" s="27"/>
+      <c r="B279" s="26"/>
     </row>
     <row r="280" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B280" s="29" t="s">
+      <c r="B280" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="C280" s="26" t="s">
+      <c r="C280" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="D280" s="26" t="s">
+      <c r="D280" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="F280" s="26" t="s">
+      <c r="F280" s="25" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
-      <c r="B281" s="27"/>
+      <c r="B281" s="26"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B282" s="27"/>
+      <c r="B282" s="26"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
-      <c r="B283" s="27"/>
+      <c r="B283" s="26"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B284" s="27"/>
+      <c r="B284" s="26"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
-      <c r="B285" s="27"/>
+      <c r="B285" s="26"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B286" s="27"/>
+      <c r="B286" s="26"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
-      <c r="B287" s="27"/>
+      <c r="B287" s="26"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B288" s="27"/>
+      <c r="B288" s="26"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
-      <c r="B289" s="27"/>
+      <c r="B289" s="26"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B290" s="27"/>
+      <c r="B290" s="26"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
-      <c r="B291" s="27"/>
+      <c r="B291" s="26"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B292" s="27"/>
+      <c r="B292" s="26"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
-      <c r="B293" s="27"/>
+      <c r="B293" s="26"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
-      <c r="B295" s="27"/>
+      <c r="B295" s="26"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B296" s="27"/>
+      <c r="B296" s="26"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
-      <c r="B297" s="27"/>
+      <c r="B297" s="26"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B298" s="27"/>
+      <c r="B298" s="26"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
-      <c r="B299" s="27"/>
+      <c r="B299" s="26"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B300" s="27"/>
+      <c r="B300" s="26"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
-      <c r="B301" s="27"/>
+      <c r="B301" s="26"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B302" s="27"/>
+      <c r="B302" s="26"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
-      <c r="B303" s="27"/>
+      <c r="B303" s="26"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B304" s="27"/>
+      <c r="B304" s="26"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
-      <c r="B305" s="27"/>
+      <c r="B305" s="26"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B306" s="27"/>
+      <c r="B306" s="26"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
-      <c r="B307" s="27"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B308" s="27"/>
+      <c r="B308" s="26"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
-      <c r="B309" s="27"/>
+      <c r="B309" s="26"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B310" s="27"/>
+      <c r="B310" s="26"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
-      <c r="B311" s="27"/>
+      <c r="B311" s="26"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B312" s="27"/>
+      <c r="B312" s="26"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
-      <c r="B313" s="27"/>
+      <c r="B313" s="26"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B314" s="27"/>
+      <c r="B314" s="26"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
-      <c r="B315" s="27"/>
+      <c r="B315" s="26"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B316" s="27"/>
+      <c r="B316" s="26"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
-      <c r="B317" s="27"/>
+      <c r="B317" s="26"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B318" s="27"/>
+      <c r="B318" s="26"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
-      <c r="B319" s="27"/>
+      <c r="B319" s="26"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B320" s="27"/>
+      <c r="B320" s="26"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
-      <c r="B321" s="27"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B322" s="27"/>
+      <c r="B322" s="26"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
-      <c r="B323" s="27"/>
+      <c r="B323" s="26"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B324" s="27"/>
+      <c r="B324" s="26"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
-      <c r="B325" s="27"/>
+      <c r="B325" s="26"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B326" s="27"/>
+      <c r="B326" s="26"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
-      <c r="B327" s="27"/>
+      <c r="B327" s="26"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B328" s="27"/>
+      <c r="B328" s="26"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
-      <c r="B329" s="27"/>
+      <c r="B329" s="26"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B330" s="27"/>
+      <c r="B330" s="26"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
-      <c r="B331" s="27"/>
+      <c r="B331" s="26"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B332" s="27"/>
+      <c r="B332" s="26"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
-      <c r="B333" s="27"/>
+      <c r="B333" s="26"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B334" s="27"/>
+      <c r="B334" s="26"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
-      <c r="B335" s="27"/>
+      <c r="B335" s="26"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B336" s="27"/>
+      <c r="B336" s="26"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
-      <c r="B337" s="27"/>
+      <c r="B337" s="26"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B338" s="27"/>
+      <c r="B338" s="26"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
-      <c r="B339" s="27"/>
+      <c r="B339" s="26"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B340" s="27"/>
+      <c r="B340" s="26"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
-      <c r="B341" s="27"/>
+      <c r="B341" s="26"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B342" s="27"/>
+      <c r="B342" s="26"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
-      <c r="B343" s="27"/>
+      <c r="B343" s="26"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B344" s="27"/>
+      <c r="B344" s="26"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
-      <c r="B345" s="27"/>
+      <c r="B345" s="26"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B346" s="27"/>
+      <c r="B346" s="26"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
-      <c r="B347" s="27"/>
+      <c r="B347" s="26"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B348" s="27"/>
+      <c r="B348" s="26"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
-      <c r="B349" s="27"/>
+      <c r="B349" s="26"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B350" s="27"/>
+      <c r="B350" s="26"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
-      <c r="B351" s="27"/>
+      <c r="B351" s="26"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B352" s="27"/>
+      <c r="B352" s="26"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
-      <c r="B353" s="27"/>
+      <c r="B353" s="26"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B354" s="27"/>
+      <c r="B354" s="26"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
-      <c r="B355" s="27"/>
+      <c r="B355" s="26"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B356" s="27"/>
+      <c r="B356" s="26"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
-      <c r="B357" s="27"/>
+      <c r="B357" s="26"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B358" s="27"/>
+      <c r="B358" s="26"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
-      <c r="B359" s="27"/>
+      <c r="B359" s="26"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B360" s="27"/>
+      <c r="B360" s="26"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
-      <c r="B361" s="27"/>
+      <c r="B361" s="26"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B362" s="27"/>
+      <c r="B362" s="26"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
-      <c r="B363" s="27"/>
+      <c r="B363" s="26"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B364" s="27"/>
+      <c r="B364" s="26"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
-      <c r="B365" s="27"/>
+      <c r="B365" s="26"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B366" s="27"/>
+      <c r="B366" s="26"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
-      <c r="B367" s="27"/>
+      <c r="B367" s="26"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B368" s="27"/>
+      <c r="B368" s="26"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
-      <c r="B369" s="27"/>
+      <c r="B369" s="26"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B370" s="27"/>
+      <c r="B370" s="26"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
-      <c r="B371" s="27"/>
+      <c r="B371" s="26"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B372" s="27"/>
+      <c r="B372" s="26"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
-      <c r="B373" s="27"/>
+      <c r="B373" s="26"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B374" s="27"/>
+      <c r="B374" s="26"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
-      <c r="B375" s="27"/>
+      <c r="B375" s="26"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B376" s="27"/>
+      <c r="B376" s="26"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
-      <c r="B377" s="27"/>
+      <c r="B377" s="26"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B378" s="27"/>
+      <c r="B378" s="26"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
-      <c r="B379" s="27"/>
+      <c r="B379" s="26"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B380" s="27"/>
+      <c r="B380" s="26"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
-      <c r="B381" s="27"/>
+      <c r="B381" s="26"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B382" s="27"/>
+      <c r="B382" s="26"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
-      <c r="B383" s="27"/>
+      <c r="B383" s="26"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B384" s="27"/>
+      <c r="B384" s="26"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
-      <c r="B385" s="27"/>
+      <c r="B385" s="26"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B386" s="27"/>
+      <c r="B386" s="26"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
-      <c r="B387" s="27"/>
+      <c r="B387" s="26"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B388" s="27"/>
+      <c r="B388" s="26"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
-      <c r="B389" s="27"/>
+      <c r="B389" s="26"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B390" s="27"/>
+      <c r="B390" s="26"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
-      <c r="B391" s="27"/>
+      <c r="B391" s="26"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B392" s="27"/>
+      <c r="B392" s="26"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
-      <c r="B393" s="27"/>
+      <c r="B393" s="26"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B394" s="27"/>
+      <c r="B394" s="26"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
-      <c r="B395" s="27"/>
+      <c r="B395" s="26"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B396" s="27"/>
+      <c r="B396" s="26"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
-      <c r="B397" s="27"/>
+      <c r="B397" s="26"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B398" s="27"/>
+      <c r="B398" s="26"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
-      <c r="B399" s="27"/>
+      <c r="B399" s="26"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B400" s="27"/>
+      <c r="B400" s="26"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
-      <c r="B401" s="27"/>
+      <c r="B401" s="26"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B402" s="27"/>
+      <c r="B402" s="26"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
-      <c r="B403" s="27"/>
+      <c r="B403" s="26"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B404" s="27"/>
+      <c r="B404" s="26"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
-      <c r="B405" s="27"/>
+      <c r="B405" s="26"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B406" s="27"/>
+      <c r="B406" s="26"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
-      <c r="B407" s="27"/>
+      <c r="B407" s="26"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B408" s="27"/>
+      <c r="B408" s="26"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
-      <c r="B409" s="27"/>
+      <c r="B409" s="26"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B410" s="27"/>
+      <c r="B410" s="26"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
-      <c r="B411" s="27"/>
+      <c r="B411" s="26"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B412" s="27"/>
+      <c r="B412" s="26"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
-      <c r="B413" s="27"/>
+      <c r="B413" s="26"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B414" s="27"/>
+      <c r="B414" s="26"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
-      <c r="B415" s="27"/>
+      <c r="B415" s="26"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B416" s="27"/>
+      <c r="B416" s="26"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
-      <c r="B417" s="27"/>
+      <c r="B417" s="26"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B418" s="27"/>
+      <c r="B418" s="26"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
-      <c r="B419" s="27"/>
+      <c r="B419" s="26"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B420" s="27"/>
+      <c r="B420" s="26"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
-      <c r="B421" s="27"/>
+      <c r="B421" s="26"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B422" s="27"/>
+      <c r="B422" s="26"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
-      <c r="B423" s="27"/>
+      <c r="B423" s="26"/>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B424" s="27"/>
+      <c r="B424" s="26"/>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
-      <c r="B425" s="27"/>
+      <c r="B425" s="26"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B426" s="27"/>
+      <c r="B426" s="26"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
-      <c r="B427" s="27"/>
+      <c r="B427" s="26"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B428" s="27"/>
+      <c r="B428" s="26"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
-      <c r="B429" s="27"/>
+      <c r="B429" s="26"/>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B430" s="27"/>
+      <c r="B430" s="26"/>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
-      <c r="B431" s="27"/>
+      <c r="B431" s="26"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B432" s="27"/>
+      <c r="B432" s="26"/>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
-      <c r="B433" s="27"/>
+      <c r="B433" s="26"/>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B434" s="27"/>
+      <c r="B434" s="26"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
-      <c r="B435" s="27"/>
+      <c r="B435" s="26"/>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B436" s="27"/>
+      <c r="B436" s="26"/>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
-      <c r="B437" s="27"/>
+      <c r="B437" s="26"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B438" s="27"/>
+      <c r="B438" s="26"/>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
-      <c r="B439" s="27"/>
+      <c r="B439" s="26"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B440" s="27"/>
+      <c r="B440" s="26"/>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
-      <c r="B441" s="27"/>
+      <c r="B441" s="26"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B442" s="27"/>
+      <c r="B442" s="26"/>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
-      <c r="B443" s="27"/>
+      <c r="B443" s="26"/>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B444" s="27"/>
+      <c r="B444" s="26"/>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
-      <c r="B445" s="27"/>
+      <c r="B445" s="26"/>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B446" s="27"/>
+      <c r="B446" s="26"/>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
-      <c r="B447" s="27"/>
+      <c r="B447" s="26"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B448" s="27"/>
+      <c r="B448" s="26"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
-      <c r="B449" s="27"/>
+      <c r="B449" s="26"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B450" s="27"/>
+      <c r="B450" s="26"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
-      <c r="B451" s="27"/>
+      <c r="B451" s="26"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B452" s="27"/>
+      <c r="B452" s="26"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
-      <c r="B453" s="27"/>
+      <c r="B453" s="26"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B454" s="27"/>
+      <c r="B454" s="26"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
-      <c r="B455" s="27"/>
+      <c r="B455" s="26"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B456" s="27"/>
+      <c r="B456" s="26"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
-      <c r="B457" s="27"/>
+      <c r="B457" s="26"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B458" s="27"/>
+      <c r="B458" s="26"/>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
-      <c r="B459" s="27"/>
+      <c r="B459" s="26"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B460" s="27"/>
+      <c r="B460" s="26"/>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
-      <c r="B461" s="27"/>
+      <c r="B461" s="26"/>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B462" s="27"/>
+      <c r="B462" s="26"/>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
-      <c r="B463" s="27"/>
+      <c r="B463" s="26"/>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B464" s="27"/>
+      <c r="B464" s="26"/>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
-      <c r="B465" s="27"/>
+      <c r="B465" s="26"/>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B466" s="27"/>
+      <c r="B466" s="26"/>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
-      <c r="B467" s="27"/>
+      <c r="B467" s="26"/>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B468" s="27"/>
+      <c r="B468" s="26"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
-      <c r="B469" s="27"/>
+      <c r="B469" s="26"/>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B470" s="27"/>
+      <c r="B470" s="26"/>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
-      <c r="B471" s="27"/>
+      <c r="B471" s="26"/>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B472" s="27"/>
+      <c r="B472" s="26"/>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
-      <c r="B473" s="27"/>
+      <c r="B473" s="26"/>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B474" s="27"/>
+      <c r="B474" s="26"/>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
-      <c r="B475" s="27"/>
+      <c r="B475" s="26"/>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B476" s="27"/>
+      <c r="B476" s="26"/>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
-      <c r="B477" s="27"/>
+      <c r="B477" s="26"/>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B478" s="27"/>
+      <c r="B478" s="26"/>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
-      <c r="B479" s="27"/>
+      <c r="B479" s="26"/>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B480" s="27"/>
+      <c r="B480" s="26"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
-      <c r="B481" s="27"/>
+      <c r="B481" s="26"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B482" s="27"/>
+      <c r="B482" s="26"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
-      <c r="B483" s="27"/>
+      <c r="B483" s="26"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B484" s="27"/>
+      <c r="B484" s="26"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
-      <c r="B485" s="27"/>
+      <c r="B485" s="26"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B486" s="27"/>
+      <c r="B486" s="26"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
-      <c r="B487" s="27"/>
+      <c r="B487" s="26"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B488" s="27"/>
+      <c r="B488" s="26"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
-      <c r="B489" s="27"/>
+      <c r="B489" s="26"/>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B490" s="27"/>
+      <c r="B490" s="26"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
-      <c r="B491" s="27"/>
+      <c r="B491" s="26"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B492" s="27"/>
+      <c r="B492" s="26"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
-      <c r="B493" s="27"/>
+      <c r="B493" s="26"/>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B494" s="27"/>
+      <c r="B494" s="26"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
-      <c r="B495" s="27"/>
+      <c r="B495" s="26"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B496" s="27"/>
+      <c r="B496" s="26"/>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
-      <c r="B497" s="27"/>
+      <c r="B497" s="26"/>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B498" s="27"/>
+      <c r="B498" s="26"/>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
-      <c r="B499" s="27"/>
+      <c r="B499" s="26"/>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B500" s="27"/>
+      <c r="B500" s="26"/>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
-      <c r="B501" s="27"/>
+      <c r="B501" s="26"/>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B502" s="27"/>
+      <c r="B502" s="26"/>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
-      <c r="B503" s="27"/>
+      <c r="B503" s="26"/>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B504" s="27"/>
+      <c r="B504" s="26"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
-      <c r="B505" s="27"/>
+      <c r="B505" s="26"/>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B506" s="27"/>
+      <c r="B506" s="26"/>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
-      <c r="B507" s="27"/>
+      <c r="B507" s="26"/>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B508" s="27"/>
+      <c r="B508" s="26"/>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
-      <c r="B509" s="27"/>
+      <c r="B509" s="26"/>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B510" s="27"/>
+      <c r="B510" s="26"/>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
-      <c r="B511" s="27"/>
+      <c r="B511" s="26"/>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B512" s="27"/>
+      <c r="B512" s="26"/>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
-      <c r="B513" s="27"/>
+      <c r="B513" s="26"/>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B514" s="27"/>
+      <c r="B514" s="26"/>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
-      <c r="B515" s="27"/>
+      <c r="B515" s="26"/>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B516" s="27"/>
+      <c r="B516" s="26"/>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
-      <c r="B517" s="27"/>
+      <c r="B517" s="26"/>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B518" s="27"/>
+      <c r="B518" s="26"/>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
-      <c r="B519" s="27"/>
+      <c r="B519" s="26"/>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B520" s="27"/>
+      <c r="B520" s="26"/>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
-      <c r="B521" s="27"/>
+      <c r="B521" s="26"/>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B522" s="27"/>
+      <c r="B522" s="26"/>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
-      <c r="B523" s="27"/>
+      <c r="B523" s="26"/>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B524" s="27"/>
+      <c r="B524" s="26"/>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
-      <c r="B525" s="27"/>
+      <c r="B525" s="26"/>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B526" s="27"/>
+      <c r="B526" s="26"/>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
-      <c r="B527" s="27"/>
+      <c r="B527" s="26"/>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B528" s="27"/>
+      <c r="B528" s="26"/>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
-      <c r="B529" s="27"/>
+      <c r="B529" s="26"/>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B530" s="27"/>
+      <c r="B530" s="26"/>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
-      <c r="B531" s="27"/>
+      <c r="B531" s="26"/>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B532" s="27"/>
+      <c r="B532" s="26"/>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
-      <c r="B533" s="27"/>
+      <c r="B533" s="26"/>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B534" s="27"/>
+      <c r="B534" s="26"/>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
@@ -30648,117 +30729,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67C78C7-A6BF-4365-9860-052DEED02674}">
-  <dimension ref="A1:A29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C9E21F-38F2-4DC9-A1BE-247F451D4D01}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -30786,7 +30756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F991E5-B967-4499-BADC-E373FF436A3A}">
   <sheetPr codeName="Taul2"/>
   <dimension ref="A1:I12"/>
@@ -30797,7 +30767,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
@@ -30807,167 +30777,167 @@
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E1" s="13" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E1" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="13">
         <v>44562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>60</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>150</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>150</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>90</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>40</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>60</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31229,82 +31199,92 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF8C298-C581-4701-8116-8B0A81C301BE}">
   <sheetPr codeName="Taul3"/>
-  <dimension ref="A1:A147"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -33664,6 +33644,193 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28F6CCA-68FD-482C-976C-990752102C70}">
+  <dimension ref="A2:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+    </row>
+    <row r="4" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67C78C7-A6BF-4365-9860-052DEED02674}">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B67A83-69A6-4188-A903-EBE184946E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE1E3D-BDFE-4CC9-BCD7-1667DAE764F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="15996" windowHeight="7488" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding Roadmap CAP Table V1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="493">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1441,9 +1441,6 @@
   </si>
   <si>
     <t>Consulting Role</t>
-  </si>
-  <si>
-    <t>Data Lakehouse</t>
   </si>
   <si>
     <t>Migrate</t>
@@ -1618,6 +1615,27 @@
   </si>
   <si>
     <t>AWS CodePipeline is a continuous delivery service you can use to model, visualize, and automate the steps required to release your software. You can quickly model and configure the different stages of a software release process. CodePipeline automates the steps required to release your software changes continuously. </t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>No Code / Low Code</t>
+  </si>
+  <si>
+    <t>AWS SAM</t>
+  </si>
+  <si>
+    <t>AWS Amplify Studio Amazon Honeycode Microsoft PowerApps</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>AWS CodePipeline, Azure DevOps</t>
+  </si>
+  <si>
+    <t>NoSQL, SQL, ETL, EMR, Data Lakehouse</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1903,6 +1921,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -16871,13 +16892,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16921,13 +16942,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16971,13 +16992,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17021,13 +17042,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17039,56 +17060,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000040C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3077" name="Control 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3077"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17132,6 +17103,56 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="3077" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000050C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="3078" name="Control 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -17171,24 +17192,74 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000070C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3079" name="Control 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3079"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000070C0000}"/>
+            <xdr:cNvPr id="3080" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17221,113 +17292,63 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3081" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000090C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3080" name="Control 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3080"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000080C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3081" name="Control 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3081"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000090C0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21610,7 +21631,7 @@
   <sheetPr codeName="Taul1"/>
   <dimension ref="B1:J539"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -21636,22 +21657,22 @@
         <v>393</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>427</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
@@ -21662,7 +21683,7 @@
         <v>430</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -21674,10 +21695,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>448</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -21692,7 +21713,7 @@
         <v>391</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -22004,20 +22025,20 @@
         <v>48</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C70" s="26"/>
     </row>
@@ -22446,7 +22467,7 @@
     <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.3">
@@ -22552,7 +22573,7 @@
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
@@ -22564,7 +22585,7 @@
     <row r="177" spans="2:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
@@ -22762,24 +22783,24 @@
     <row r="215" spans="2:3" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C216" s="26"/>
     </row>
     <row r="217" spans="2:3" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C218" s="26"/>
     </row>
@@ -23057,7 +23078,7 @@
         <v>147</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.3">
@@ -23113,16 +23134,16 @@
     <row r="283" spans="2:7" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
       <c r="C283" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="D283" s="25" t="s">
-        <v>454</v>
-      </c>
       <c r="E283" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G283" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.3">
@@ -23414,12 +23435,12 @@
     <row r="341" spans="2:3" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
       <c r="C341" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B342" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C342" s="26"/>
     </row>
@@ -31141,10 +31162,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F991E5-B967-4499-BADC-E373FF436A3A}">
   <sheetPr codeName="Taul2"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31155,11 +31176,24 @@
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="E1" s="12" t="s">
         <v>436</v>
       </c>
@@ -31168,158 +31202,162 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B4" s="15">
         <v>60</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="D4" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B5" s="16">
         <v>150</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B6" s="15">
         <v>150</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="15">
-        <v>90</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>445</v>
-      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>444</v>
-      </c>
+      <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" s="15">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>418</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>444</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="20" t="s">
+        <v>443</v>
+      </c>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="15">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B9" s="15">
         <v>60</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31335,14 +31373,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>259080</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -31360,13 +31398,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>259080</xdr:rowOff>
               </to>
             </anchor>
@@ -31385,14 +31423,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -31410,14 +31448,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -31435,13 +31473,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -31460,13 +31498,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -31485,13 +31523,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -31510,13 +31548,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -31535,13 +31573,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -31560,13 +31598,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -31602,15 +31640,15 @@
         <v>406</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -34042,7 +34080,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
@@ -34050,7 +34088,7 @@
     </row>
     <row r="4" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -34058,47 +34096,47 @@
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE1E3D-BDFE-4CC9-BCD7-1667DAE764F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06779B81-056B-4C35-83E3-8672B036FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06779B81-056B-4C35-83E3-8672B036FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F504196-C4B5-4B5A-AE78-8F89CA913370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="494">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1636,6 +1636,9 @@
   </si>
   <si>
     <t>NoSQL, SQL, ETL, EMR, Data Lakehouse</t>
+  </si>
+  <si>
+    <t>Databricks on AWS allows you to store and manage all of your data on a simple, open lakehouse platform that combines the best of data warehouses and data lakes to unify all of your analytics and AI workloads.</t>
   </si>
 </sst>
 </file>
@@ -31165,7 +31168,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31270,7 +31273,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="210" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>405</v>
       </c>
@@ -31287,7 +31290,9 @@
         <v>444</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="40" t="s">
+        <v>493</v>
+      </c>
       <c r="H7" s="20" t="s">
         <v>443</v>
       </c>

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13DC88B-8105-46D2-AC20-EDC6F6ABAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E9433-A754-4452-82D3-E563508FB5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="498">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1648,6 +1648,9 @@
   </si>
   <si>
     <t>DWS Feature Name</t>
+  </si>
+  <si>
+    <t>DWS Infrastucture Sustainability Management</t>
   </si>
 </sst>
 </file>
@@ -21662,8 +21665,8 @@
   <dimension ref="B1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21829,7 +21832,7 @@
         <v>493</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>494</v>

--- a/Project/1221_Access_Patterns_V1.xlsx
+++ b/Project/1221_Access_Patterns_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risto\OneDrive\Documents\GitHub\dws\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E9433-A754-4452-82D3-E563508FB5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A11B1CF-FBCC-45D1-A614-EAB9CC0333F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="500">
   <si>
     <t>Get customer for a given customerId</t>
   </si>
@@ -1651,6 +1651,12 @@
   </si>
   <si>
     <t>DWS Infrastucture Sustainability Management</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>DWS offers organisations support of their project organisation with unique workmail services cross-supplier chain. Contact office@dws10.com for any new organizational requests.</t>
   </si>
 </sst>
 </file>
@@ -21665,8 +21671,8 @@
   <dimension ref="B1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23822,15 +23828,19 @@
       <c r="B409" s="1"/>
       <c r="C409" s="26"/>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:3" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C410" s="26"/>
+      <c r="C410" s="25" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B411" s="1"/>
-      <c r="C411" s="26"/>
+      <c r="C411" s="26" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B412" s="1" t="s">
@@ -26054,7 +26064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1227" r:id="rId69" name="Control 203">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
